--- a/FileOutput/HybridFwPractResults.xlsx
+++ b/FileOutput/HybridFwPractResults.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>CustomerName</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -266,7 +263,7 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -693,9 +690,7 @@
       <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s" s="6">
-        <v>55</v>
-      </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -725,9 +720,7 @@
       <c r="I3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s" s="7">
-        <v>55</v>
-      </c>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -757,9 +750,7 @@
       <c r="I4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J4" t="s" s="8">
-        <v>56</v>
-      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -789,9 +780,7 @@
       <c r="I5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s" s="9">
-        <v>55</v>
-      </c>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -821,9 +810,7 @@
       <c r="I6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J6" t="s" s="10">
-        <v>55</v>
-      </c>
+      <c r="J6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -917,7 +904,9 @@
       <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" t="s" s="6">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -947,7 +936,9 @@
       <c r="I3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" t="s" s="7">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -977,7 +968,9 @@
       <c r="I4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" t="s" s="8">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1007,7 +1000,9 @@
       <c r="I5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" t="s" s="9">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1037,7 +1032,9 @@
       <c r="I6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" t="s" s="10">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
